--- a/doc/30_詳細設計/01_画面系/【CMS】詳細設計_画面項目定義書_人事用資格一覧表画面.xlsx
+++ b/doc/30_詳細設計/01_画面系/【CMS】詳細設計_画面項目定義書_人事用資格一覧表画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e354eabc4fa991d/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josaw\Desktop\workspace-teama\team\doc\30_詳細設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{9E0AB396-7EAD-4988-B589-73A4ACF1BCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7EDB35-EC1D-4418-B9C3-9CBE1CC946BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1068" windowWidth="18012" windowHeight="10416" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="1380" windowWidth="17505" windowHeight="14535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="画面項目定義書-人事用資格一覧表画面" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'画面項目定義書-人事用資格一覧表画面'!$C$6:$S$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'画面項目定義書-人事用資格一覧表画面'!$C$6:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$X$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">履歴情報!$A$1:$F$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -245,7 +244,7 @@
       <rPr>
         <sz val="36"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,7 +254,7 @@
       <rPr>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,7 +384,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -430,7 +429,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>人事用資格一覧表画面(USER02）</t>
+    <t>人事用資格一覧表画面(cms006）</t>
     <rPh sb="0" eb="2">
       <t>カイイン</t>
     </rPh>
@@ -439,6 +438,26 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>徐沢鍇</t>
+    <rPh sb="0" eb="3">
+      <t>ジョサワカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面番号変更</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -451,7 +470,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -459,14 +478,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -474,14 +493,14 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -489,13 +508,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -507,7 +526,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1061,19 +1080,55 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,45 +1182,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1521,12 +1540,12 @@
       <selection activeCell="E7" sqref="E7:T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="5.77734375" style="1"/>
+    <col min="1" max="16384" width="5.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:20" ht="14.4" thickBot="1"/>
+    <row r="6" spans="5:20" ht="19.5" thickBot="1"/>
     <row r="7" spans="5:20" ht="18" customHeight="1">
       <c r="E7" s="19" t="s">
         <v>28</v>
@@ -1745,7 +1764,7 @@
       <c r="S18" s="23"/>
       <c r="T18" s="24"/>
     </row>
-    <row r="19" spans="5:20" ht="18.45" customHeight="1" thickBot="1">
+    <row r="19" spans="5:20" ht="18.399999999999999" customHeight="1" thickBot="1">
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
@@ -1769,7 +1788,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1777,20 +1796,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A3393F-1812-45E3-A313-A173DF056651}">
   <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.75" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="4" customFormat="1" ht="24.45" customHeight="1">
+    <row r="2" spans="2:6" s="4" customFormat="1" ht="24.4" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1825,11 +1844,21 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45043</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2"/>
@@ -2056,70 +2085,70 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:S62"/>
+  <dimension ref="C1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B3" zoomScale="83" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="83" zoomScaleNormal="53" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="2.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="1" customWidth="1"/>
-    <col min="5" max="18" width="12.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
+    <col min="5" max="18" width="12.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="14.4" thickBot="1"/>
-    <row r="2" spans="3:19" ht="37.049999999999997" customHeight="1">
-      <c r="C2" s="35" t="s">
+    <row r="1" spans="3:19" ht="19.5" thickBot="1"/>
+    <row r="2" spans="3:19" ht="37.15" customHeight="1">
+      <c r="C2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38"/>
-    </row>
-    <row r="3" spans="3:19" ht="38.549999999999997" customHeight="1" thickBot="1">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
+    </row>
+    <row r="3" spans="3:19" ht="38.65" customHeight="1" thickBot="1">
       <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="14" t="s">
         <v>9</v>
       </c>
@@ -2129,95 +2158,107 @@
       </c>
       <c r="S3" s="16"/>
     </row>
-    <row r="4" spans="3:19" ht="13.8" customHeight="1" thickBot="1">
+    <row r="4" spans="3:19" ht="13.9" customHeight="1" thickBot="1">
       <c r="C4" s="8"/>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="3:19">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="44" t="s">
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="44" t="s">
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="44" t="s">
+      <c r="N5" s="57"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="50"/>
-    </row>
-    <row r="6" spans="3:19" ht="14.4" thickBot="1">
-      <c r="C6" s="41"/>
-      <c r="D6" s="43" t="s">
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="62"/>
+    </row>
+    <row r="6" spans="3:19" ht="19.5" thickBot="1">
+      <c r="C6" s="53"/>
+      <c r="D6" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="51"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="63"/>
     </row>
     <row r="7" spans="3:19">
-      <c r="C7" s="18"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="31"/>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28">
+        <v>8</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="3:19">
       <c r="C8" s="18">
         <v>2</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
-      <c r="G8" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="28" t="s">
         <v>18</v>
       </c>
@@ -2228,58 +2269,56 @@
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
-      <c r="P8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="29"/>
-    </row>
-    <row r="9" spans="3:19" ht="15.6">
+      <c r="P8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="36"/>
+    </row>
+    <row r="9" spans="3:19">
       <c r="C9" s="18">
         <v>3</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+      <c r="D9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="28" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
-      <c r="P9" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="53"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="36"/>
     </row>
     <row r="10" spans="3:19">
       <c r="C10" s="18">
         <v>4</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
+      <c r="D10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="28" t="s">
         <v>18</v>
       </c>
@@ -2290,87 +2329,87 @@
       </c>
       <c r="N10" s="28"/>
       <c r="O10" s="28"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="53"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="3:19">
       <c r="C11" s="18">
         <v>5</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="D11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="29"/>
+      <c r="P11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="36"/>
     </row>
     <row r="12" spans="3:19">
       <c r="C12" s="18">
         <v>6</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
-      <c r="P12" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="53"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="36"/>
     </row>
     <row r="13" spans="3:19">
       <c r="C13" s="18">
         <v>7</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
+      <c r="D13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -2379,87 +2418,87 @@
       </c>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="53"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="29"/>
     </row>
     <row r="14" spans="3:19">
       <c r="C14" s="18">
         <v>8</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="G14" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="29"/>
+      <c r="P14" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="36"/>
     </row>
     <row r="15" spans="3:19">
       <c r="C15" s="18">
         <v>9</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
+      <c r="D15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="28" t="s">
         <v>18</v>
       </c>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="53"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="36"/>
     </row>
     <row r="16" spans="3:19">
       <c r="C16" s="18">
         <v>10</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
+      <c r="D16" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -2468,125 +2507,111 @@
       </c>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="53"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="29"/>
     </row>
     <row r="17" spans="3:19">
       <c r="C17" s="18">
         <v>11</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="G17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="28" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29"/>
+      <c r="P17" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" spans="3:19">
       <c r="C18" s="18">
         <v>12</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
+      <c r="D18" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="28" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
-      <c r="P18" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="53"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="3:19">
-      <c r="C19" s="18">
-        <v>13</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="28" t="s">
-        <v>20</v>
-      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="28">
-        <v>50</v>
-      </c>
+      <c r="M19" s="28"/>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="53"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="36"/>
     </row>
     <row r="20" spans="3:19">
-      <c r="C20" s="18">
-        <v>14</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="53"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
     </row>
     <row r="21" spans="3:19">
-      <c r="C21" s="18">
-        <v>15</v>
-      </c>
+      <c r="C21" s="18"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -2605,9 +2630,7 @@
       <c r="S21" s="29"/>
     </row>
     <row r="22" spans="3:19">
-      <c r="C22" s="18">
-        <v>16</v>
-      </c>
+      <c r="C22" s="18"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -2626,9 +2649,7 @@
       <c r="S22" s="29"/>
     </row>
     <row r="23" spans="3:19">
-      <c r="C23" s="18">
-        <v>17</v>
-      </c>
+      <c r="C23" s="18"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -2647,9 +2668,7 @@
       <c r="S23" s="29"/>
     </row>
     <row r="24" spans="3:19">
-      <c r="C24" s="18">
-        <v>18</v>
-      </c>
+      <c r="C24" s="18"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -2668,9 +2687,7 @@
       <c r="S24" s="29"/>
     </row>
     <row r="25" spans="3:19">
-      <c r="C25" s="18">
-        <v>19</v>
-      </c>
+      <c r="C25" s="18"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -2689,9 +2706,7 @@
       <c r="S25" s="29"/>
     </row>
     <row r="26" spans="3:19">
-      <c r="C26" s="18">
-        <v>20</v>
-      </c>
+      <c r="C26" s="18"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
@@ -2701,18 +2716,16 @@
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="28"/>
       <c r="R26" s="28"/>
       <c r="S26" s="29"/>
     </row>
     <row r="27" spans="3:19">
-      <c r="C27" s="18">
-        <v>21</v>
-      </c>
+      <c r="C27" s="18"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -2722,18 +2735,16 @@
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="29"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="35"/>
     </row>
     <row r="28" spans="3:19">
-      <c r="C28" s="18">
-        <v>22</v>
-      </c>
+      <c r="C28" s="18"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -2743,18 +2754,16 @@
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="31"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="35"/>
     </row>
     <row r="29" spans="3:19">
-      <c r="C29" s="18">
-        <v>23</v>
-      </c>
+      <c r="C29" s="18"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
@@ -2764,18 +2773,16 @@
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="31"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="35"/>
     </row>
     <row r="30" spans="3:19">
-      <c r="C30" s="18">
-        <v>24</v>
-      </c>
+      <c r="C30" s="18"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
@@ -2785,18 +2792,16 @@
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="31"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="35"/>
     </row>
     <row r="31" spans="3:19">
-      <c r="C31" s="18">
-        <v>25</v>
-      </c>
+      <c r="C31" s="18"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -2806,81 +2811,73 @@
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="31"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="29"/>
     </row>
     <row r="32" spans="3:19">
-      <c r="C32" s="18">
-        <v>26</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
       <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="29"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="35"/>
     </row>
     <row r="33" spans="3:19">
-      <c r="C33" s="18">
-        <v>27</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="35"/>
     </row>
     <row r="34" spans="3:19">
-      <c r="C34" s="18">
-        <v>28</v>
-      </c>
+      <c r="C34" s="18"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="34"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="29"/>
     </row>
     <row r="35" spans="3:19">
-      <c r="C35" s="18">
-        <v>29</v>
-      </c>
+      <c r="C35" s="18"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -2893,536 +2890,507 @@
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="29"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="35"/>
     </row>
     <row r="36" spans="3:19">
-      <c r="C36" s="18">
-        <v>30</v>
-      </c>
+      <c r="C36" s="18"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="31"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="35"/>
     </row>
     <row r="37" spans="3:19">
-      <c r="C37" s="18">
-        <v>31</v>
-      </c>
+      <c r="C37" s="18"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="34"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="31"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="29"/>
     </row>
     <row r="38" spans="3:19">
-      <c r="C38" s="18">
-        <v>32</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="29"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="36"/>
     </row>
     <row r="39" spans="3:19">
-      <c r="C39" s="18">
-        <v>33</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="53"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="36"/>
     </row>
     <row r="40" spans="3:19">
-      <c r="C40" s="18">
-        <v>34</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="53"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="44"/>
     </row>
     <row r="41" spans="3:19">
-      <c r="C41" s="17"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="59"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="44"/>
     </row>
     <row r="42" spans="3:19">
       <c r="C42" s="10"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="59"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="44"/>
     </row>
     <row r="43" spans="3:19">
       <c r="C43" s="10"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="59"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="44"/>
     </row>
     <row r="44" spans="3:19">
       <c r="C44" s="10"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="59"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="44"/>
     </row>
     <row r="45" spans="3:19">
       <c r="C45" s="10"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="56"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="59"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="44"/>
     </row>
     <row r="46" spans="3:19">
       <c r="C46" s="10"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="59"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="44"/>
     </row>
     <row r="47" spans="3:19">
       <c r="C47" s="10"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="56"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="59"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="44"/>
     </row>
     <row r="48" spans="3:19">
       <c r="C48" s="10"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="59"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="44"/>
     </row>
     <row r="49" spans="3:19">
       <c r="C49" s="10"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="56"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="59"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="44"/>
     </row>
     <row r="50" spans="3:19">
       <c r="C50" s="10"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="59"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="38"/>
     </row>
     <row r="51" spans="3:19">
       <c r="C51" s="10"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="61"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="38"/>
     </row>
     <row r="52" spans="3:19">
       <c r="C52" s="10"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="60"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="61"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="38"/>
     </row>
     <row r="53" spans="3:19">
       <c r="C53" s="10"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="60"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="61"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="38"/>
     </row>
     <row r="54" spans="3:19">
       <c r="C54" s="10"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="61"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="38"/>
     </row>
     <row r="55" spans="3:19">
       <c r="C55" s="10"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="60"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="61"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="38"/>
     </row>
     <row r="56" spans="3:19">
       <c r="C56" s="10"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="60"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="61"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="38"/>
     </row>
     <row r="57" spans="3:19">
       <c r="C57" s="10"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="60"/>
-      <c r="O57" s="60"/>
-      <c r="P57" s="60"/>
-      <c r="Q57" s="60"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="61"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="38"/>
     </row>
     <row r="58" spans="3:19">
       <c r="C58" s="10"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="60"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="61"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="38"/>
     </row>
     <row r="59" spans="3:19">
       <c r="C59" s="10"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="60"/>
-      <c r="P59" s="60"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="61"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="38"/>
     </row>
     <row r="60" spans="3:19">
       <c r="C60" s="10"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="60"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="61"/>
-    </row>
-    <row r="61" spans="3:19">
-      <c r="C61" s="10"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="61"/>
-    </row>
-    <row r="62" spans="3:19" ht="14.4" thickBot="1">
-      <c r="C62" s="11"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="62"/>
-      <c r="S62" s="63"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="38"/>
+    </row>
+    <row r="61" spans="3:19" ht="19.5" thickBot="1">
+      <c r="C61" s="11"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="C6:S40" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
+  <autoFilter ref="C6:S39" xr:uid="{E5ABB0B6-41E7-4951-98AC-3F8C79ECD689}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="4" showButton="0"/>
@@ -3435,266 +3403,25 @@
     <filterColumn colId="14" showButton="0"/>
     <filterColumn colId="15" showButton="0"/>
   </autoFilter>
-  <mergeCells count="291">
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P30:S30"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="P39:S39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="P29:S29"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:S31"/>
-    <mergeCell ref="G30:I30"/>
+  <mergeCells count="286">
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:S35"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="P33:S33"/>
-    <mergeCell ref="P34:S34"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:S24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:S60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:S59"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="P62:S62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:S61"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="P58:S58"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="P57:S57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="P56:S56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="P55:S55"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:S54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:S52"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:S50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:S49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:S47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:S46"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:S45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:S41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="P10:S10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:S11"/>
     <mergeCell ref="C2:S2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="I3:K3"/>
@@ -3706,30 +3433,266 @@
     <mergeCell ref="J5:L6"/>
     <mergeCell ref="M5:O6"/>
     <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:S52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:S54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:S57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="P56:S56"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="P55:S55"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:S61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:S60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="P58:S58"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="M38:O38"/>
     <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:S38"/>
-    <mergeCell ref="P36:S36"/>
-    <mergeCell ref="P37:S37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="P33:S33"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:S26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>